--- a/Table/D_地区表.xlsx
+++ b/Table/D_地区表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\COVID-19_Gallery\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Unity\BFramework-Ex\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF8CA92-35E7-480F-9D04-3FCD61A1CC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F38897-8B70-4152-8E12-570B90D082F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5724" yWindow="2712" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tb_region" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>int</t>
   </si>
@@ -207,6 +207,10 @@
   </si>
   <si>
     <t>S|C</t>
+  </si>
+  <si>
+    <t>#注释1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -544,16 +548,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="43" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -799,6 +803,11 @@
       </c>
       <c r="D18" s="2" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Table/D_地区表.xlsx
+++ b/Table/D_地区表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Unity\BFramework-Ex\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\BFramework-Ex\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F38897-8B70-4152-8E12-570B90D082F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C64A85-5660-43BA-AC7A-FE087B1FE6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5724" yWindow="2712" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7230" yWindow="2145" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tb_region" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>int</t>
   </si>
@@ -42,174 +42,84 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>河北保定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒株名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>poison_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Omicron-BF7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>噪子割痛感,高烧40度左右，浑身剧痛。</t>
-  </si>
-  <si>
-    <t>毒株说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>poison_desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>香港</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Omicron-BH5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗓子割痛感，高烧39度左右，偶尔可见40度上下，浑身剧痛，男性感染者生殖器呈放射性疼痛，性欲减退，味觉失灵，咳嗽严重，重度鼻塞流涕、吞咽疼痛。(与台北变异毒株BX540同源，部分感染者可能会出现出血症状)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东广州</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Omicron-BA52</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>澳门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Omicron-BH35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗓子割痛感，高烧38度左右，鼻塞，臀部严重疼痛，性欲减退。</t>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Omicron-BS25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗓子割痛感，低烧37度左右，鼻塞，咳嗽，头疼剧烈，轻度浑身疼痛，食欲减退。</t>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Omicron-BA276</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发烧38度左右，偶尔可见39度，反复发烧不易退，浑身疼痛，咽部撕裂疼痛，咳嗽，鼻塞流涕。</t>
-  </si>
-  <si>
-    <t>四川成都</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>咽部微痛，低烧37度左右，基本不超过38度，偶尔鼻塞。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Omicron-BE447</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>江苏南京</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Omicron-BK36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>咽部微痛，乏力，轻微鼻塞，神经性失眠，偶尔可见关节处抽搐性阵痛。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>江西鹰潭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Omicron-BY51</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高烧39度以上，偶尔可见40度，咽部疼痛，面部疼痛。食欲激增。</t>
-  </si>
-  <si>
-    <t>江苏苏州</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Omicron-BZ116</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发烧38度，偶尔可见39度，咽部疼痛与咳嗽较为剧烈，鼻塞流涕。</t>
-  </si>
-  <si>
-    <t>咽部微痛，发烧38度易反复，咳嗽，鼻塞流涕。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>广西南宁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>辽宁大连</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>河南郑州</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Omicron-BN810</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Omicron-BU151</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Omicron-BK74</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高烧39度以上，偶尔可见40度，咽部疼痛，皮肤表皮层半角质脱落，常见于面部。</t>
-  </si>
-  <si>
-    <t>发烧38度左右，畏光，眼部胀痛或肿痛，鼻塞流涕。</t>
-  </si>
-  <si>
-    <t>咽部疼痛，咳嗽，低烧37度左右，舌苔发黑，皮肤变黑。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>S|C</t>
   </si>
   <si>
     <t>#注释1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>array_int</t>
+  </si>
+  <si>
+    <t>array_string</t>
+  </si>
+  <si>
+    <t>地区1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区2</t>
+  </si>
+  <si>
+    <t>地区3</t>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,B,C,D,E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文1,中文2,中文3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>array_long</t>
+  </si>
+  <si>
+    <t>test3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>array_float</t>
+  </si>
+  <si>
+    <t>测试4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -229,11 +139,13 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -548,35 +460,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="14.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="23.625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="11.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,243 +502,137 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>50</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:B12">
-    <sortCondition ref="B7:B12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:B8">
+    <sortCondition ref="B7:B8"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:D1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:F1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"S,C,S|C,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:D2" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"int,string,array,float"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:F2" xr:uid="{77F8267B-50FD-47A9-A08D-9F6D3D73ECAC}">
+      <formula1>"int,long,float,string,array_string,array_int,array_long,array_float"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/D_地区表.xlsx
+++ b/Table/D_地区表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\BFramework-Ex\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C64A85-5660-43BA-AC7A-FE087B1FE6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB91991-17CA-495C-B4D9-D0F954A61EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7230" yWindow="2145" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,7 +463,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Table/D_地区表.xlsx
+++ b/Table/D_地区表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\BFramework-Ex\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB91991-17CA-495C-B4D9-D0F954A61EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B8101C-CF13-4559-BAD1-8C992A897D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="2145" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6240" yWindow="3765" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tb_region" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>int</t>
   </si>
@@ -49,78 +49,120 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>array_string</t>
+  </si>
+  <si>
+    <t>地区1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区2</t>
+  </si>
+  <si>
+    <t>地区3</t>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,B,C,D,E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文1,中文2,中文3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>array_long</t>
+  </si>
+  <si>
+    <t>test3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>array_float</t>
+  </si>
+  <si>
+    <t>测试4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>composite_string</t>
+  </si>
+  <si>
+    <t>test5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2|3,4|5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,1|B,2|C,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,中文1|,2,中文2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>composite_int</t>
+  </si>
+  <si>
+    <t>3,4|11,12|22,23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>99,100|100,102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>array_int</t>
-  </si>
-  <si>
-    <t>array_string</t>
-  </si>
-  <si>
-    <t>地区1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地区2</t>
-  </si>
-  <si>
-    <t>地区3</t>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A,B,C,D,E</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文1,中文2,中文3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>array_long</t>
-  </si>
-  <si>
-    <t>test3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>array_float</t>
-  </si>
-  <si>
-    <t>测试4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -460,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -471,10 +513,11 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="23.625" style="1" customWidth="1"/>
     <col min="4" max="6" width="11.25" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="8" width="25.875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -493,8 +536,14 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,19 +551,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -522,102 +577,132 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -628,11 +713,11 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:F1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:H1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"S,C,S|C,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:F2" xr:uid="{77F8267B-50FD-47A9-A08D-9F6D3D73ECAC}">
-      <formula1>"int,long,float,string,array_string,array_int,array_long,array_float"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:G2 H2" xr:uid="{321E066E-77F6-4EED-8B34-BD87B83FAC81}">
+      <formula1>"int,long,float,string,array_string,array_int,array_long,array_float,composite_string,composite_int"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/D_地区表.xlsx
+++ b/Table/D_地区表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\BFramework-Ex\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B8101C-CF13-4559-BAD1-8C992A897D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A094A442-9E2B-4250-AD69-2806C18068D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="3765" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5535" yWindow="2805" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tb_region" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -716,7 +716,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:H1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"S,C,S|C,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:G2 H2" xr:uid="{321E066E-77F6-4EED-8B34-BD87B83FAC81}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:H2" xr:uid="{321E066E-77F6-4EED-8B34-BD87B83FAC81}">
       <formula1>"int,long,float,string,array_string,array_int,array_long,array_float,composite_string,composite_int"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Table/D_地区表.xlsx
+++ b/Table/D_地区表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28007"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\BFramework-Ex\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Unity\BFramework-Ex\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A094A442-9E2B-4250-AD69-2806C18068D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F74513F-8515-4481-90C7-19B08B65061A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="2805" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6156" yWindow="4200" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tb_region" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>int</t>
   </si>
@@ -163,6 +163,48 @@
   </si>
   <si>
     <t>array_int</t>
+  </si>
+  <si>
+    <t>vector2</t>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector3</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -219,12 +261,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -502,22 +547,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="23.625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="11.25" style="1" customWidth="1"/>
-    <col min="7" max="8" width="25.875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="23.6640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="11.21875" style="1" customWidth="1"/>
+    <col min="7" max="10" width="25.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -542,34 +587,46 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -594,8 +651,14 @@
       <c r="H3" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -617,14 +680,20 @@
       <c r="H4" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -649,8 +718,14 @@
       <c r="H6" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -675,8 +750,14 @@
       <c r="H7" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="I7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -701,8 +782,14 @@
       <c r="H8" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -712,12 +799,15 @@
     <sortCondition ref="B7:B8"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:H1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:J1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"S,C,S|C,NO"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:H2" xr:uid="{321E066E-77F6-4EED-8B34-BD87B83FAC81}">
-      <formula1>"int,long,float,string,array_string,array_int,array_long,array_float,composite_string,composite_int"</formula1>
+      <formula1>"int,long,float,string,vector2,vector3,array_string,array_int,array_long,array_float,composite_string,composite_int"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J2" xr:uid="{0DFA344A-1BD5-4396-A53D-117E4CC14CA9}">
+      <formula1>"int,long,float,string,vector2,vector3,array_string,array_int,array_long,array_float,composite_string,composite_int"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
